--- a/doc_testbed/Cape_pre-deployment-tests.xlsx
+++ b/doc_testbed/Cape_pre-deployment-tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingmo\Documents\GitHub\shepherd_v2_planning\doc_testbed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AF86CF-83D9-4F09-A515-43EAFB03B42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3910B1-CB89-4CD9-AF6A-2CABA01B18DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="6405" windowWidth="20925" windowHeight="20460" xr2:uid="{0961F1A4-98B1-4F35-911A-F9CB780BF838}"/>
+    <workbookView xWindow="14280" yWindow="6840" windowWidth="20925" windowHeight="20460" xr2:uid="{0961F1A4-98B1-4F35-911A-F9CB780BF838}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="45">
   <si>
     <t>Target</t>
   </si>
@@ -124,6 +124,42 @@
   </si>
   <si>
     <t>2nd LabPrototype, has stackable Headers</t>
+  </si>
+  <si>
+    <t>J24</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>H18</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>I14</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>C20</t>
   </si>
 </sst>
 </file>
@@ -190,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,10 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -314,8 +347,8 @@
     <tableColumn id="14" xr3:uid="{4BB433E8-BB2C-434A-86F8-CAD847215D39}" name="Dplm_Bbone" dataDxfId="4"/>
     <tableColumn id="15" xr3:uid="{FF2AF165-23D6-4020-80AF-07BF1E63D03B}" name="Dplm_Target" dataDxfId="3"/>
     <tableColumn id="16" xr3:uid="{5B80B321-6B6C-41B8-AE7E-C24D9A411E6E}" name="Dplm_Room" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{B0B7780B-D915-49CD-86B4-61AE16185936}" name="Dplm_Socket" dataDxfId="0"/>
-    <tableColumn id="17" xr3:uid="{9C254D40-B1FA-4933-8C96-05EFD55C114C}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{B0B7780B-D915-49CD-86B4-61AE16185936}" name="Dplm_Socket" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{9C254D40-B1FA-4933-8C96-05EFD55C114C}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -624,7 +657,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -638,55 +671,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="74.25" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -694,112 +727,128 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>51</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>52</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2</v>
+      </c>
+      <c r="P3" s="1">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="37.5" customHeight="1">
       <c r="A4" s="3">
         <v>53</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
@@ -813,30 +862,30 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>54</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -848,39 +897,47 @@
       <c r="J5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>4</v>
+      </c>
+      <c r="P5" s="1">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>55</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -892,41 +949,49 @@
       <c r="J6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5</v>
+      </c>
+      <c r="P6" s="1">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="R6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>56</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -938,37 +1003,45 @@
       <c r="J7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>6</v>
+      </c>
+      <c r="O7" s="1">
+        <v>6</v>
+      </c>
+      <c r="P7" s="1">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>57</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -980,11 +1053,11 @@
       <c r="J8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="1"/>
@@ -996,25 +1069,25 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>58</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -1026,39 +1099,47 @@
       <c r="J9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1">
+        <v>8</v>
+      </c>
+      <c r="O9" s="1">
+        <v>16</v>
+      </c>
+      <c r="P9" s="1">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>59</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1070,41 +1151,49 @@
       <c r="J10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>9</v>
+      </c>
+      <c r="O10" s="1">
+        <v>9</v>
+      </c>
+      <c r="P10" s="1">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="R10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>60</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1114,13 +1203,13 @@
         <v>3</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="4" t="s">
+      <c r="K11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N11" s="1"/>
@@ -1132,25 +1221,25 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>61</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1162,41 +1251,49 @@
       <c r="J12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>11</v>
+      </c>
+      <c r="O12" s="1">
+        <v>11</v>
+      </c>
+      <c r="P12" s="1">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="R12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>62</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1208,39 +1305,47 @@
       <c r="J13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="1">
+        <v>12</v>
+      </c>
+      <c r="O13" s="1">
+        <v>14</v>
+      </c>
+      <c r="P13" s="1">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>63</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1252,41 +1357,49 @@
       <c r="J14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="1">
+        <v>3</v>
+      </c>
+      <c r="O14" s="1">
+        <v>3</v>
+      </c>
+      <c r="P14" s="1">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="R14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>64</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -1298,41 +1411,49 @@
       <c r="J15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="1">
+        <v>7</v>
+      </c>
+      <c r="O15" s="1">
+        <v>17</v>
+      </c>
+      <c r="P15" s="1">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="R15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>65</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1344,17 +1465,25 @@
       <c r="J16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="1">
+        <v>10</v>
+      </c>
+      <c r="O16" s="1">
+        <v>10</v>
+      </c>
+      <c r="P16" s="1">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="R16" s="1" t="s">
         <v>31</v>
       </c>
